--- a/service/src/main/resources/com/aplana/sbrf/taxaccounting/service/impl/print/acctax.xlsx
+++ b/service/src/main/resources/com/aplana/sbrf/taxaccounting/service/impl/print/acctax.xlsx
@@ -13,8 +13,10 @@
     <definedName name="date_create">'Учет налогов'!$A$4</definedName>
     <definedName name="fio" localSheetId="0">'Учет налогов'!$J$13</definedName>
     <definedName name="position" localSheetId="0">'Учет налогов'!$A$13</definedName>
+    <definedName name="report_meta">'Учет налогов'!$L$2</definedName>
     <definedName name="report_name">'Учет налогов'!$G$7</definedName>
     <definedName name="report_period">'Учет налогов'!$G$8</definedName>
+    <definedName name="report_table_namber">'Учет налогов'!$L$1</definedName>
     <definedName name="subdivision" localSheetId="0">'Учет налогов'!$A$1</definedName>
   </definedNames>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
@@ -22,21 +24,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Подразделение</t>
-  </si>
-  <si>
-    <t>Таблица 787/2/1</t>
   </si>
   <si>
     <t>наименование территориального банка / учётного подразделения Центрального аппарата</t>
   </si>
   <si>
-    <t>Приложение №2</t>
+    <t>исполнитель:</t>
   </si>
   <si>
-    <t>исполнитель:</t>
+    <t>Таблица</t>
   </si>
 </sst>
 </file>
@@ -127,7 +126,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -161,6 +160,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -458,7 +463,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -481,18 +486,17 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="15"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="15" customHeight="1">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" ht="15" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>3</v>
-      </c>
+      <c r="L2" s="4"/>
       <c r="N2" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="15" customHeight="1">
@@ -532,7 +536,7 @@
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1">
       <c r="A14" s="14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/service/src/main/resources/com/aplana/sbrf/taxaccounting/service/impl/print/acctax.xlsx
+++ b/service/src/main/resources/com/aplana/sbrf/taxaccounting/service/impl/print/acctax.xlsx
@@ -13,10 +13,9 @@
     <definedName name="date_create">'Учет налогов'!$A$4</definedName>
     <definedName name="fio" localSheetId="0">'Учет налогов'!$J$13</definedName>
     <definedName name="position" localSheetId="0">'Учет налогов'!$A$13</definedName>
-    <definedName name="report_meta">'Учет налогов'!$L$2</definedName>
+    <definedName name="report_code">'Учет налогов'!$L$1</definedName>
     <definedName name="report_name">'Учет налогов'!$G$7</definedName>
     <definedName name="report_period">'Учет налогов'!$G$8</definedName>
-    <definedName name="report_table_namber">'Учет налогов'!$L$1</definedName>
     <definedName name="subdivision" localSheetId="0">'Учет налогов'!$A$1</definedName>
   </definedNames>
   <calcPr calcId="124519" iterateDelta="1E-4"/>
@@ -463,7 +462,7 @@
   <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/service/src/main/resources/com/aplana/sbrf/taxaccounting/service/impl/print/acctax.xlsx
+++ b/service/src/main/resources/com/aplana/sbrf/taxaccounting/service/impl/print/acctax.xlsx
@@ -163,12 +163,9 @@
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="42"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="1" numFmtId="9"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf applyAlignment="false" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0"/>
     <xf applyAlignment="false" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="4" numFmtId="164" xfId="0"/>
-    <xf applyAlignment="true" applyBorder="false" applyFont="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
-      <alignment horizontal="left" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
-    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFont="true" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="164" xfId="0">
       <alignment horizontal="right" indent="0" shrinkToFit="false" textRotation="0" vertical="bottom" wrapText="false"/>
     </xf>
@@ -221,68 +218,67 @@
     </sheetView>
   </sheetViews>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.89803921568628"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.2392156862745"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.35686274509804"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="9.35686274509804"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.63921568627451"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.0941176470588"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.2274509803922"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.2274509803922"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.05098039215686"/>
-    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.63921568627451"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="4.87450980392157"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.1921568627451"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="9.32156862745098"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.60392156862745"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="9.32156862745098"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="8.60392156862745"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="0" width="11.043137254902"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="0" width="10.1843137254902"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="27.1137254901961"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="6.02352941176471"/>
+    <col collapsed="false" hidden="false" max="1025" min="12" style="0" width="8.60392156862745"/>
   </cols>
   <sheetData>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="2"/>
-      <c r="M1" s="3"/>
+      <c r="M1" s="2"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="5"/>
-      <c r="M2" s="5"/>
+      <c r="K2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="4">
-      <c r="A4" s="6"/>
+      <c r="A4" s="5"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="7">
-      <c r="G7" s="7"/>
+      <c r="G7" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15.75" outlineLevel="0" r="8">
-      <c r="G8" s="7"/>
+      <c r="G8" s="6"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="13.5" outlineLevel="0" r="12">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="21" outlineLevel="0" r="13">
-      <c r="A13" s="8"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="7"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="true" hidden="false" ht="15" outlineLevel="0" r="14">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>2</v>
       </c>
     </row>
